--- a/_data_/_plant_.xlsx
+++ b/_data_/_plant_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\_c_sharp_\_dev_desktop_\FloraPlantStoreManagement\_data_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TBinT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F213D90-F98D-42CE-8D21-8625A939BF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C29E136-3902-4DA4-B58E-83953B894C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="3420" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7905" yWindow="3765" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plant" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>A popular indoor plant with long, pointed leaves and plants.</t>
   </si>
   <si>
-    <t>/Images/PlantProducts/PlantProduct01.png</t>
+    <t>C:\Users\TBinT\Downloads\Images\PlantProduct05.png</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
     <col min="4" max="4" width="121.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
